--- a/docs/Descriptives_sp_Stroke.xlsx
+++ b/docs/Descriptives_sp_Stroke.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1097,259 +1097,259 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Pseudotime</t>
+          <t>Pseudotime_1</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  8.44 (2.94)  </t>
+          <t xml:space="preserve">  5.98 (3.85)  </t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.33 (2.55)  </t>
+          <t xml:space="preserve"> 4.51 (3.25)  </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0.010  </t>
+          <t xml:space="preserve"> &lt;0.001  </t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Brain_region:</t>
+          <t>Pseudotime_2</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve">               </t>
+          <t xml:space="preserve">  4.67 (2.74)  </t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve"> 4.54 (3.03)  </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0.003  </t>
+          <t xml:space="preserve">  0.669  </t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Cortex</t>
+          <t>Pseudotime_3</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  297 (78.4%)  </t>
+          <t xml:space="preserve">  4.40 (3.03)  </t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 112 (65.9%)  </t>
+          <t xml:space="preserve"> 4.08 (2.25)  </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">         </t>
+          <t xml:space="preserve">  0.254  </t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Lesion</t>
+          <t>Brain_region:</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve">  82 (21.6%)   </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve">  58 (34.1%)  </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">         </t>
+          <t xml:space="preserve">  0.003  </t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>nCount_RNA</t>
+          <t xml:space="preserve">    Cortex</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>161384 (122017)</t>
+          <t xml:space="preserve">  297 (78.4%)  </t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>175222 (90282)</t>
+          <t xml:space="preserve"> 112 (65.9%)  </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0.139  </t>
+          <t xml:space="preserve">         </t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>pseudoaligned_reads</t>
+          <t xml:space="preserve">    Lesion</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>161834 (122084)</t>
+          <t xml:space="preserve">  82 (21.6%)   </t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>175563 (90328)</t>
+          <t xml:space="preserve">  58 (34.1%)  </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0.143  </t>
+          <t xml:space="preserve">         </t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>percent.mt</t>
+          <t>nCount_RNA</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1.54 (1.03)  </t>
+          <t>161384 (122017)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.62 (1.78)  </t>
+          <t>175222 (90282)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;0.001  </t>
+          <t xml:space="preserve">  0.139  </t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>percent.rp</t>
+          <t>pseudoaligned_reads</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1.59 (1.06)  </t>
+          <t>161834 (122084)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.62 (1.46)  </t>
+          <t>175563 (90328)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;0.001  </t>
+          <t xml:space="preserve">  0.143  </t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Mouse_ID:</t>
+          <t>percent.mt</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve">               </t>
+          <t xml:space="preserve">  1.54 (1.03)  </t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve"> 2.62 (1.78)  </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">    .    </t>
+          <t xml:space="preserve"> &lt;0.001  </t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">    256#1022</t>
+          <t>percent.rp</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve">  58 (15.3%)   </t>
+          <t xml:space="preserve">  1.59 (1.06)  </t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2 (1.18%)   </t>
+          <t xml:space="preserve"> 3.62 (1.46)  </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">         </t>
+          <t xml:space="preserve"> &lt;0.001  </t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve">    256#1023</t>
+          <t>Mouse_ID:</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve">  66 (17.4%)   </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0 (0.00%)   </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">         </t>
+          <t xml:space="preserve">    .    </t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve">    364#469</t>
+          <t xml:space="preserve">    256#1022</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve">  76 (20.1%)   </t>
+          <t xml:space="preserve">  58 (15.3%)   </t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0 (0.00%)   </t>
+          <t xml:space="preserve">  2 (1.18%)   </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1361,17 +1361,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">    386</t>
+          <t xml:space="preserve">    256#1023</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve">   8 (2.11%)   </t>
+          <t xml:space="preserve">  66 (17.4%)   </t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve">  12 (7.06%)  </t>
+          <t xml:space="preserve">  0 (0.00%)   </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1383,17 +1383,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">    387</t>
+          <t xml:space="preserve">    364#469</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve">   6 (1.58%)   </t>
+          <t xml:space="preserve">  76 (20.1%)   </t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve">  7 (4.12%)   </t>
+          <t xml:space="preserve">  0 (0.00%)   </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1405,17 +1405,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve">    388</t>
+          <t xml:space="preserve">    386</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve">  47 (12.4%)   </t>
+          <t xml:space="preserve">   8 (2.11%)   </t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve">  50 (29.4%)  </t>
+          <t xml:space="preserve">  12 (7.06%)  </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1427,17 +1427,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">    409</t>
+          <t xml:space="preserve">    387</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve">  41 (10.8%)   </t>
+          <t xml:space="preserve">   6 (1.58%)   </t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve">  20 (11.8%)  </t>
+          <t xml:space="preserve">  7 (4.12%)   </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1449,17 +1449,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">    457</t>
+          <t xml:space="preserve">    388</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve">  50 (13.2%)   </t>
+          <t xml:space="preserve">  47 (12.4%)   </t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve">  60 (35.3%)  </t>
+          <t xml:space="preserve">  50 (29.4%)  </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1471,20 +1471,64 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
+          <t xml:space="preserve">    409</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  41 (10.8%)   </t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  20 (11.8%)  </t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    457</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  50 (13.2%)   </t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  60 (35.3%)  </t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
           <t xml:space="preserve">    461</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t xml:space="preserve">  27 (7.12%)   </t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">  19 (11.2%)  </t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t xml:space="preserve">         </t>
         </is>

--- a/docs/Descriptives_sp_Stroke.xlsx
+++ b/docs/Descriptives_sp_Stroke.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1097,259 +1097,259 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Pseudotime_1</t>
+          <t>Brain_region:</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  5.98 (3.85)  </t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.51 (3.25)  </t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;0.001  </t>
+          <t xml:space="preserve">  0.003  </t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Pseudotime_2</t>
+          <t xml:space="preserve">    Cortex</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  4.67 (2.74)  </t>
+          <t xml:space="preserve">  297 (78.4%)  </t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.54 (3.03)  </t>
+          <t xml:space="preserve"> 112 (65.9%)  </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0.669  </t>
+          <t xml:space="preserve">         </t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Pseudotime_3</t>
+          <t xml:space="preserve">    Lesion</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  4.40 (3.03)  </t>
+          <t xml:space="preserve">  82 (21.6%)   </t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.08 (2.25)  </t>
+          <t xml:space="preserve">  58 (34.1%)  </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0.254  </t>
+          <t xml:space="preserve">         </t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Brain_region:</t>
+          <t>nCount_RNA</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve">               </t>
+          <t>161384 (122017)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t>175222 (90282)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0.003  </t>
+          <t xml:space="preserve">  0.139  </t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Cortex</t>
+          <t>pseudoaligned_reads</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  297 (78.4%)  </t>
+          <t>161834 (122084)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 112 (65.9%)  </t>
+          <t>175563 (90328)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">         </t>
+          <t xml:space="preserve">  0.143  </t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Lesion</t>
+          <t>percent.mt</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">  82 (21.6%)   </t>
+          <t xml:space="preserve">  1.54 (1.03)  </t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve">  58 (34.1%)  </t>
+          <t xml:space="preserve"> 2.62 (1.78)  </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">         </t>
+          <t xml:space="preserve"> &lt;0.001  </t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>nCount_RNA</t>
+          <t>percent.rp</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>161384 (122017)</t>
+          <t xml:space="preserve">  1.59 (1.06)  </t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>175222 (90282)</t>
+          <t xml:space="preserve"> 3.62 (1.46)  </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0.139  </t>
+          <t xml:space="preserve"> &lt;0.001  </t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>pseudoaligned_reads</t>
+          <t>Mouse_ID:</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>161834 (122084)</t>
+          <t xml:space="preserve">               </t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>175563 (90328)</t>
+          <t xml:space="preserve">              </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0.143  </t>
+          <t xml:space="preserve">    .    </t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>percent.mt</t>
+          <t xml:space="preserve">    256#1022</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1.54 (1.03)  </t>
+          <t xml:space="preserve">  58 (15.3%)   </t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.62 (1.78)  </t>
+          <t xml:space="preserve">  2 (1.18%)   </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;0.001  </t>
+          <t xml:space="preserve">         </t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>percent.rp</t>
+          <t xml:space="preserve">    256#1023</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1.59 (1.06)  </t>
+          <t xml:space="preserve">  66 (17.4%)   </t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.62 (1.46)  </t>
+          <t xml:space="preserve">  0 (0.00%)   </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt;0.001  </t>
+          <t xml:space="preserve">         </t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Mouse_ID:</t>
+          <t xml:space="preserve">    364#469</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve">               </t>
+          <t xml:space="preserve">  76 (20.1%)   </t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve">              </t>
+          <t xml:space="preserve">  0 (0.00%)   </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">    .    </t>
+          <t xml:space="preserve">         </t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve">    256#1022</t>
+          <t xml:space="preserve">    386</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve">  58 (15.3%)   </t>
+          <t xml:space="preserve">   8 (2.11%)   </t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2 (1.18%)   </t>
+          <t xml:space="preserve">  12 (7.06%)  </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1361,17 +1361,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">    256#1023</t>
+          <t xml:space="preserve">    387</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve">  66 (17.4%)   </t>
+          <t xml:space="preserve">   6 (1.58%)   </t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0 (0.00%)   </t>
+          <t xml:space="preserve">  7 (4.12%)   </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1383,17 +1383,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">    364#469</t>
+          <t xml:space="preserve">    388</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve">  76 (20.1%)   </t>
+          <t xml:space="preserve">  47 (12.4%)   </t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0 (0.00%)   </t>
+          <t xml:space="preserve">  50 (29.4%)  </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1405,17 +1405,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve">    386</t>
+          <t xml:space="preserve">    409</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve">   8 (2.11%)   </t>
+          <t xml:space="preserve">  41 (10.8%)   </t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve">  12 (7.06%)  </t>
+          <t xml:space="preserve">  20 (11.8%)  </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1427,17 +1427,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">    387</t>
+          <t xml:space="preserve">    457</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve">   6 (1.58%)   </t>
+          <t xml:space="preserve">  50 (13.2%)   </t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve">  7 (4.12%)   </t>
+          <t xml:space="preserve">  60 (35.3%)  </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1449,86 +1449,20 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">    388</t>
+          <t xml:space="preserve">    461</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve">  47 (12.4%)   </t>
+          <t xml:space="preserve">  27 (7.12%)   </t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve">  50 (29.4%)  </t>
+          <t xml:space="preserve">  19 (11.2%)  </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">         </t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    409</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  41 (10.8%)   </t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  20 (11.8%)  </t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">         </t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    457</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  50 (13.2%)   </t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  60 (35.3%)  </t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">         </t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    461</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  27 (7.12%)   </t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  19 (11.2%)  </t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
         <is>
           <t xml:space="preserve">         </t>
         </is>
